--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Purse Gucci XXL </t>
+          <t xml:space="preserve">Purse Gucci XL </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Branded Purse</t>
+          <t>Branded Purse XL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>300.5</v>
+        <v>280.5</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -504,28 +504,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Purse Gucci XL </t>
+          <t xml:space="preserve">Laptopn I7 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Branded Purse XL</t>
+          <t>High Spec Laptop</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fashion</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>280.5</v>
+        <v>990.9</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -533,16 +533,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laptopn I7 </t>
+          <t xml:space="preserve">Laptopn I3 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>High Spec Laptop</t>
+          <t>Mid Spec Laptop</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>990.9</v>
+        <v>590.9</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -562,16 +562,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laptopn I3 </t>
+          <t xml:space="preserve">Laptopn I9 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mid Spec Laptop</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -580,10 +580,213 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>590.9</v>
+        <v>999.9</v>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>224</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shoes Addias </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Premium Shoes XL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Shoes</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Item 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Description for Item 1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fashion</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Item 3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Description for Item 3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fashion</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Item 4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Description for Item 4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fashion</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A high-performance laptop</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>999.99</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Smartphone</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A latest model smartphone</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>699.99</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Desk Chair</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>An ergonomic desk chair</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="G12" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
